--- a/Symboint_Density/Transplants_Sym_D_Counts.xlsx
+++ b/Symboint_Density/Transplants_Sym_D_Counts.xlsx
@@ -13,14 +13,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mjoP6AVJbX6WBNpi5xMEn7eZ4Srvw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mij1eQxL9M5UX5VDuGsWjweMPx8ZQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="186">
   <si>
     <t>Full_ID</t>
   </si>
@@ -1165,6 +1165,7 @@
       <c r="F2" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="G2" s="5"/>
       <c r="R2" s="3" t="str">
         <f t="shared" ref="R2:R229" si="2">AVERAGE(J2:Q2)/I2</f>
         <v>#DIV/0!</v>
@@ -8617,17 +8618,44 @@
       <c r="F149" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="R149" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S149" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T149" s="3" t="str">
+      <c r="G149" s="5">
+        <v>44858.0</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I149" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J149" s="6">
+        <v>154.0</v>
+      </c>
+      <c r="K149" s="6">
+        <v>163.0</v>
+      </c>
+      <c r="L149" s="6">
+        <v>175.0</v>
+      </c>
+      <c r="M149" s="6">
+        <v>126.0</v>
+      </c>
+      <c r="N149" s="6">
+        <v>138.0</v>
+      </c>
+      <c r="O149" s="6">
+        <v>152.0</v>
+      </c>
+      <c r="R149" s="3">
+        <f t="shared" si="2"/>
+        <v>75.66666667</v>
+      </c>
+      <c r="S149" s="3">
+        <f t="shared" si="3"/>
+        <v>8.727351641</v>
+      </c>
+      <c r="T149" s="3">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>11.5339449</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
@@ -8650,17 +8678,44 @@
       <c r="F150" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="R150" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S150" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T150" s="3" t="str">
+      <c r="G150" s="5">
+        <v>44858.0</v>
+      </c>
+      <c r="H150" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I150" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J150" s="6">
+        <v>156.0</v>
+      </c>
+      <c r="K150" s="6">
+        <v>149.0</v>
+      </c>
+      <c r="L150" s="6">
+        <v>152.0</v>
+      </c>
+      <c r="M150" s="6">
+        <v>139.0</v>
+      </c>
+      <c r="N150" s="6">
+        <v>142.0</v>
+      </c>
+      <c r="O150" s="6">
+        <v>129.0</v>
+      </c>
+      <c r="R150" s="3">
+        <f t="shared" si="2"/>
+        <v>72.25</v>
+      </c>
+      <c r="S150" s="3">
+        <f t="shared" si="3"/>
+        <v>4.926966612</v>
+      </c>
+      <c r="T150" s="3">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>6.819330951</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
@@ -8683,17 +8738,44 @@
       <c r="F151" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="R151" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S151" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T151" s="3" t="str">
+      <c r="G151" s="5">
+        <v>44848.0</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I151" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J151" s="6">
+        <v>122.0</v>
+      </c>
+      <c r="K151" s="6">
+        <v>108.0</v>
+      </c>
+      <c r="L151" s="6">
+        <v>114.0</v>
+      </c>
+      <c r="M151" s="6">
+        <v>142.0</v>
+      </c>
+      <c r="N151" s="6">
+        <v>109.0</v>
+      </c>
+      <c r="O151" s="6">
+        <v>127.0</v>
+      </c>
+      <c r="R151" s="3">
+        <f t="shared" si="2"/>
+        <v>120.3333333</v>
+      </c>
+      <c r="S151" s="3">
+        <f t="shared" si="3"/>
+        <v>12.94089126</v>
+      </c>
+      <c r="T151" s="7">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>10.75420327</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
@@ -8717,49 +8799,43 @@
         <v>24</v>
       </c>
       <c r="G152" s="5">
-        <v>44825.0</v>
+        <v>44851.0</v>
       </c>
       <c r="H152" s="6" t="s">
         <v>32</v>
       </c>
       <c r="I152" s="6">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J152" s="6">
-        <v>78.0</v>
+        <v>114.0</v>
       </c>
       <c r="K152" s="6">
-        <v>74.0</v>
+        <v>124.0</v>
       </c>
       <c r="L152" s="6">
+        <v>143.0</v>
+      </c>
+      <c r="M152" s="6">
         <v>152.0</v>
       </c>
-      <c r="M152" s="6">
-        <v>131.0</v>
-      </c>
       <c r="N152" s="6">
-        <v>150.0</v>
+        <v>148.0</v>
       </c>
       <c r="O152" s="6">
-        <v>131.0</v>
-      </c>
-      <c r="P152" s="6">
-        <v>121.0</v>
-      </c>
-      <c r="Q152" s="6">
-        <v>109.0</v>
+        <v>154.0</v>
       </c>
       <c r="R152" s="3">
         <f t="shared" si="2"/>
-        <v>29.5625</v>
+        <v>69.58333333</v>
       </c>
       <c r="S152" s="3">
         <f t="shared" si="3"/>
-        <v>7.406259418</v>
-      </c>
-      <c r="T152" s="8">
+        <v>8.187897573</v>
+      </c>
+      <c r="T152" s="7">
         <f t="shared" si="22"/>
-        <v>25.05288598</v>
+        <v>11.76703843</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
@@ -8842,17 +8918,44 @@
       <c r="F154" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="R154" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S154" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T154" s="3" t="str">
+      <c r="G154" s="5">
+        <v>44848.0</v>
+      </c>
+      <c r="H154" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I154" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J154" s="6">
+        <v>101.0</v>
+      </c>
+      <c r="K154" s="6">
+        <v>84.0</v>
+      </c>
+      <c r="L154" s="6">
+        <v>107.0</v>
+      </c>
+      <c r="M154" s="6">
+        <v>83.0</v>
+      </c>
+      <c r="N154" s="6">
+        <v>105.0</v>
+      </c>
+      <c r="O154" s="6">
+        <v>97.0</v>
+      </c>
+      <c r="R154" s="3">
+        <f t="shared" si="2"/>
+        <v>96.16666667</v>
+      </c>
+      <c r="S154" s="3">
+        <f t="shared" si="3"/>
+        <v>10.40032051</v>
+      </c>
+      <c r="T154" s="7">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>10.81489134</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
@@ -8875,17 +8978,44 @@
       <c r="F155" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="R155" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S155" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T155" s="3" t="str">
+      <c r="G155" s="5">
+        <v>44851.0</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I155" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J155" s="6">
+        <v>173.0</v>
+      </c>
+      <c r="K155" s="6">
+        <v>179.0</v>
+      </c>
+      <c r="L155" s="6">
+        <v>155.0</v>
+      </c>
+      <c r="M155" s="6">
+        <v>192.0</v>
+      </c>
+      <c r="N155" s="6">
+        <v>135.0</v>
+      </c>
+      <c r="O155" s="6">
+        <v>188.0</v>
+      </c>
+      <c r="R155" s="3">
+        <f t="shared" si="2"/>
+        <v>85.16666667</v>
+      </c>
+      <c r="S155" s="3">
+        <f t="shared" si="3"/>
+        <v>10.83358974</v>
+      </c>
+      <c r="T155" s="7">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>12.72045762</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
@@ -9001,17 +9131,44 @@
       <c r="F158" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="R158" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S158" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T158" s="3" t="str">
+      <c r="G158" s="5">
+        <v>44858.0</v>
+      </c>
+      <c r="H158" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I158" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J158" s="6">
+        <v>157.0</v>
+      </c>
+      <c r="K158" s="6">
+        <v>153.0</v>
+      </c>
+      <c r="L158" s="6">
+        <v>181.0</v>
+      </c>
+      <c r="M158" s="6">
+        <v>161.0</v>
+      </c>
+      <c r="N158" s="6">
+        <v>176.0</v>
+      </c>
+      <c r="O158" s="6">
+        <v>190.0</v>
+      </c>
+      <c r="R158" s="3">
+        <f t="shared" si="2"/>
+        <v>84.83333333</v>
+      </c>
+      <c r="S158" s="3">
+        <f t="shared" si="3"/>
+        <v>7.400450437</v>
+      </c>
+      <c r="T158" s="3">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>8.723517214</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
@@ -9067,17 +9224,44 @@
       <c r="F160" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="R160" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S160" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T160" s="3" t="str">
+      <c r="G160" s="5">
+        <v>44858.0</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I160" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J160" s="6">
+        <v>175.0</v>
+      </c>
+      <c r="K160" s="6">
+        <v>173.0</v>
+      </c>
+      <c r="L160" s="6">
+        <v>185.0</v>
+      </c>
+      <c r="M160" s="6">
+        <v>157.0</v>
+      </c>
+      <c r="N160" s="6">
+        <v>146.0</v>
+      </c>
+      <c r="O160" s="6">
+        <v>171.0</v>
+      </c>
+      <c r="R160" s="3">
+        <f t="shared" si="2"/>
+        <v>83.91666667</v>
+      </c>
+      <c r="S160" s="3">
+        <f t="shared" si="3"/>
+        <v>6.988681325</v>
+      </c>
+      <c r="T160" s="3">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>8.328120745</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
@@ -9160,17 +9344,44 @@
       <c r="F162" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="R162" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S162" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T162" s="3" t="str">
+      <c r="G162" s="5">
+        <v>44851.0</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I162" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J162" s="6">
+        <v>111.0</v>
+      </c>
+      <c r="K162" s="6">
+        <v>94.0</v>
+      </c>
+      <c r="L162" s="6">
+        <v>92.0</v>
+      </c>
+      <c r="M162" s="6">
+        <v>116.0</v>
+      </c>
+      <c r="N162" s="6">
+        <v>115.0</v>
+      </c>
+      <c r="O162" s="6">
+        <v>103.0</v>
+      </c>
+      <c r="R162" s="3">
+        <f t="shared" si="2"/>
+        <v>52.58333333</v>
+      </c>
+      <c r="S162" s="3">
+        <f t="shared" si="3"/>
+        <v>5.248015498</v>
+      </c>
+      <c r="T162" s="7">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>9.980378126</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
@@ -9193,17 +9404,44 @@
       <c r="F163" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="R163" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S163" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T163" s="3" t="str">
+      <c r="G163" s="5">
+        <v>44858.0</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I163" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J163" s="6">
+        <v>145.0</v>
+      </c>
+      <c r="K163" s="6">
+        <v>124.0</v>
+      </c>
+      <c r="L163" s="6">
+        <v>142.0</v>
+      </c>
+      <c r="M163" s="6">
+        <v>133.0</v>
+      </c>
+      <c r="N163" s="6">
+        <v>154.0</v>
+      </c>
+      <c r="O163" s="6">
+        <v>135.0</v>
+      </c>
+      <c r="R163" s="3">
+        <f t="shared" si="2"/>
+        <v>69.41666667</v>
+      </c>
+      <c r="S163" s="3">
+        <f t="shared" si="3"/>
+        <v>5.228925957</v>
+      </c>
+      <c r="T163" s="7">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>7.532666445</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
@@ -9226,17 +9464,44 @@
       <c r="F164" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="R164" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S164" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T164" s="3" t="str">
+      <c r="G164" s="5">
+        <v>44858.0</v>
+      </c>
+      <c r="H164" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I164" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J164" s="6">
+        <v>137.0</v>
+      </c>
+      <c r="K164" s="6">
+        <v>154.0</v>
+      </c>
+      <c r="L164" s="6">
+        <v>162.0</v>
+      </c>
+      <c r="M164" s="6">
+        <v>148.0</v>
+      </c>
+      <c r="N164" s="6">
+        <v>165.0</v>
+      </c>
+      <c r="O164" s="6">
+        <v>152.0</v>
+      </c>
+      <c r="R164" s="3">
+        <f t="shared" si="2"/>
+        <v>76.5</v>
+      </c>
+      <c r="S164" s="3">
+        <f t="shared" si="3"/>
+        <v>5.039841267</v>
+      </c>
+      <c r="T164" s="7">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>6.5880278</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
@@ -9294,7 +9559,7 @@
         <f t="shared" si="3"/>
         <v>4.654746681</v>
       </c>
-      <c r="T165" s="3">
+      <c r="T165" s="7">
         <f t="shared" si="22"/>
         <v>7.979565739</v>
       </c>
@@ -9319,17 +9584,44 @@
       <c r="F166" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="R166" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S166" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T166" s="3" t="str">
+      <c r="G166" s="5">
+        <v>44848.0</v>
+      </c>
+      <c r="H166" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I166" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J166" s="6">
+        <v>177.0</v>
+      </c>
+      <c r="K166" s="6">
+        <v>172.0</v>
+      </c>
+      <c r="L166" s="6">
+        <v>186.0</v>
+      </c>
+      <c r="M166" s="6">
+        <v>176.0</v>
+      </c>
+      <c r="N166" s="6">
+        <v>185.0</v>
+      </c>
+      <c r="O166" s="6">
+        <v>186.0</v>
+      </c>
+      <c r="R166" s="3">
+        <f t="shared" si="2"/>
+        <v>90.16666667</v>
+      </c>
+      <c r="S166" s="3">
+        <f t="shared" si="3"/>
+        <v>3.044120015</v>
+      </c>
+      <c r="T166" s="7">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>3.376103529</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
@@ -9352,17 +9644,44 @@
       <c r="F167" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="R167" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S167" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T167" s="3" t="str">
+      <c r="G167" s="5">
+        <v>44853.0</v>
+      </c>
+      <c r="H167" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I167" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="J167" s="6">
+        <v>103.0</v>
+      </c>
+      <c r="K167" s="6">
+        <v>99.0</v>
+      </c>
+      <c r="L167" s="6">
+        <v>102.0</v>
+      </c>
+      <c r="M167" s="6">
+        <v>112.0</v>
+      </c>
+      <c r="N167" s="6">
+        <v>109.0</v>
+      </c>
+      <c r="O167" s="6">
+        <v>89.0</v>
+      </c>
+      <c r="R167" s="3">
+        <f t="shared" si="2"/>
+        <v>34.11111111</v>
+      </c>
+      <c r="S167" s="3">
+        <f t="shared" si="3"/>
+        <v>2.697049142</v>
+      </c>
+      <c r="T167" s="7">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>7.906658722</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
@@ -9385,17 +9704,44 @@
       <c r="F168" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="R168" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S168" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T168" s="3" t="str">
+      <c r="G168" s="5">
+        <v>44858.0</v>
+      </c>
+      <c r="H168" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I168" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J168" s="6">
+        <v>142.0</v>
+      </c>
+      <c r="K168" s="6">
+        <v>156.0</v>
+      </c>
+      <c r="L168" s="6">
+        <v>160.0</v>
+      </c>
+      <c r="M168" s="6">
+        <v>172.0</v>
+      </c>
+      <c r="N168" s="6">
+        <v>173.0</v>
+      </c>
+      <c r="O168" s="6">
+        <v>169.0</v>
+      </c>
+      <c r="R168" s="3">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="S168" s="3">
+        <f t="shared" si="3"/>
+        <v>5.958187644</v>
+      </c>
+      <c r="T168" s="7">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>7.355787215</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
@@ -9418,17 +9764,44 @@
       <c r="F169" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="R169" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S169" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T169" s="3" t="str">
+      <c r="G169" s="5">
+        <v>44851.0</v>
+      </c>
+      <c r="H169" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I169" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="J169" s="6">
+        <v>113.0</v>
+      </c>
+      <c r="K169" s="6">
+        <v>109.0</v>
+      </c>
+      <c r="L169" s="6">
+        <v>121.0</v>
+      </c>
+      <c r="M169" s="6">
+        <v>103.0</v>
+      </c>
+      <c r="N169" s="6">
+        <v>119.0</v>
+      </c>
+      <c r="O169" s="6">
+        <v>90.0</v>
+      </c>
+      <c r="R169" s="3">
+        <f t="shared" si="2"/>
+        <v>36.38888889</v>
+      </c>
+      <c r="S169" s="3">
+        <f t="shared" si="3"/>
+        <v>3.820509952</v>
+      </c>
+      <c r="T169" s="7">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>10.49911132</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
@@ -9451,17 +9824,44 @@
       <c r="F170" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="R170" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S170" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T170" s="3" t="str">
+      <c r="G170" s="5">
+        <v>44851.0</v>
+      </c>
+      <c r="H170" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I170" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J170" s="6">
+        <v>146.0</v>
+      </c>
+      <c r="K170" s="6">
+        <v>120.0</v>
+      </c>
+      <c r="L170" s="6">
+        <v>127.0</v>
+      </c>
+      <c r="M170" s="6">
+        <v>131.0</v>
+      </c>
+      <c r="N170" s="6">
+        <v>133.0</v>
+      </c>
+      <c r="O170" s="6">
+        <v>140.0</v>
+      </c>
+      <c r="R170" s="3">
+        <f t="shared" si="2"/>
+        <v>66.41666667</v>
+      </c>
+      <c r="S170" s="3">
+        <f t="shared" si="3"/>
+        <v>4.619704175</v>
+      </c>
+      <c r="T170" s="7">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>6.955639913</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
@@ -9484,17 +9884,44 @@
       <c r="F171" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="R171" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S171" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T171" s="3" t="str">
+      <c r="G171" s="5">
+        <v>44858.0</v>
+      </c>
+      <c r="H171" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I171" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J171" s="6">
+        <v>155.0</v>
+      </c>
+      <c r="K171" s="6">
+        <v>131.0</v>
+      </c>
+      <c r="L171" s="6">
+        <v>136.0</v>
+      </c>
+      <c r="M171" s="6">
+        <v>146.0</v>
+      </c>
+      <c r="N171" s="6">
+        <v>139.0</v>
+      </c>
+      <c r="O171" s="6">
+        <v>143.0</v>
+      </c>
+      <c r="R171" s="3">
+        <f t="shared" si="2"/>
+        <v>70.83333333</v>
+      </c>
+      <c r="S171" s="3">
+        <f t="shared" si="3"/>
+        <v>4.191260749</v>
+      </c>
+      <c r="T171" s="7">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>5.917073999</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
@@ -9517,17 +9944,44 @@
       <c r="F172" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="R172" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S172" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T172" s="3" t="str">
+      <c r="G172" s="5">
+        <v>44851.0</v>
+      </c>
+      <c r="H172" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I172" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="J172" s="6">
+        <v>131.0</v>
+      </c>
+      <c r="K172" s="6">
+        <v>115.0</v>
+      </c>
+      <c r="L172" s="6">
+        <v>105.0</v>
+      </c>
+      <c r="M172" s="6">
+        <v>136.0</v>
+      </c>
+      <c r="N172" s="6">
+        <v>110.0</v>
+      </c>
+      <c r="O172" s="6">
+        <v>123.0</v>
+      </c>
+      <c r="R172" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="S172" s="3">
+        <f t="shared" si="3"/>
+        <v>4.044200237</v>
+      </c>
+      <c r="T172" s="7">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>10.11050059</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
@@ -9550,17 +10004,44 @@
       <c r="F173" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="R173" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S173" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T173" s="3" t="str">
+      <c r="G173" s="5">
+        <v>44848.0</v>
+      </c>
+      <c r="H173" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I173" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="J173" s="6">
+        <v>140.0</v>
+      </c>
+      <c r="K173" s="6">
+        <v>182.0</v>
+      </c>
+      <c r="L173" s="6">
+        <v>162.0</v>
+      </c>
+      <c r="M173" s="6">
+        <v>176.0</v>
+      </c>
+      <c r="N173" s="6">
+        <v>165.0</v>
+      </c>
+      <c r="O173" s="6">
+        <v>152.0</v>
+      </c>
+      <c r="R173" s="3">
+        <f t="shared" si="2"/>
+        <v>54.27777778</v>
+      </c>
+      <c r="S173" s="3">
+        <f t="shared" si="3"/>
+        <v>5.131240555</v>
+      </c>
+      <c r="T173" s="7">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>9.453667347</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
@@ -9583,17 +10064,44 @@
       <c r="F174" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="R174" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S174" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T174" s="3" t="str">
+      <c r="G174" s="5">
+        <v>44851.0</v>
+      </c>
+      <c r="H174" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I174" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="J174" s="6">
+        <v>126.0</v>
+      </c>
+      <c r="K174" s="6">
+        <v>130.0</v>
+      </c>
+      <c r="L174" s="6">
+        <v>138.0</v>
+      </c>
+      <c r="M174" s="6">
+        <v>122.0</v>
+      </c>
+      <c r="N174" s="6">
+        <v>102.0</v>
+      </c>
+      <c r="O174" s="6">
+        <v>139.0</v>
+      </c>
+      <c r="R174" s="3">
+        <f t="shared" si="2"/>
+        <v>42.05555556</v>
+      </c>
+      <c r="S174" s="3">
+        <f t="shared" si="3"/>
+        <v>4.523600664</v>
+      </c>
+      <c r="T174" s="7">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>10.75624993</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
@@ -9650,17 +10158,50 @@
       <c r="F176" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="R176" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S176" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T176" s="3" t="str">
+      <c r="G176" s="5">
+        <v>44858.0</v>
+      </c>
+      <c r="H176" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I176" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="J176" s="6">
+        <v>136.0</v>
+      </c>
+      <c r="K176" s="6">
+        <v>196.0</v>
+      </c>
+      <c r="L176" s="6">
+        <v>129.0</v>
+      </c>
+      <c r="M176" s="6">
+        <v>171.0</v>
+      </c>
+      <c r="N176" s="6">
+        <v>164.0</v>
+      </c>
+      <c r="O176" s="6">
+        <v>149.0</v>
+      </c>
+      <c r="P176" s="6">
+        <v>147.0</v>
+      </c>
+      <c r="Q176" s="6">
+        <v>143.0</v>
+      </c>
+      <c r="R176" s="3">
+        <f t="shared" si="2"/>
+        <v>51.45833333</v>
+      </c>
+      <c r="S176" s="3">
+        <f t="shared" si="3"/>
+        <v>7.232943812</v>
+      </c>
+      <c r="T176" s="3">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>14.0559232</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
@@ -9743,17 +10284,50 @@
       <c r="F178" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="R178" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S178" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T178" s="3" t="str">
+      <c r="G178" s="5">
+        <v>44851.0</v>
+      </c>
+      <c r="H178" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I178" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J178" s="6">
+        <v>107.0</v>
+      </c>
+      <c r="K178" s="6">
+        <v>103.0</v>
+      </c>
+      <c r="L178" s="6">
+        <v>121.0</v>
+      </c>
+      <c r="M178" s="6">
+        <v>119.0</v>
+      </c>
+      <c r="N178" s="6">
+        <v>134.0</v>
+      </c>
+      <c r="O178" s="6">
+        <v>154.0</v>
+      </c>
+      <c r="P178" s="6">
+        <v>116.0</v>
+      </c>
+      <c r="Q178" s="6">
+        <v>134.0</v>
+      </c>
+      <c r="R178" s="3">
+        <f t="shared" si="2"/>
+        <v>61.75</v>
+      </c>
+      <c r="S178" s="3">
+        <f t="shared" si="3"/>
+        <v>8.293715349</v>
+      </c>
+      <c r="T178" s="7">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>13.43111797</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
@@ -9776,17 +10350,50 @@
       <c r="F179" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="R179" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S179" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T179" s="3" t="str">
+      <c r="G179" s="5">
+        <v>44848.0</v>
+      </c>
+      <c r="H179" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I179" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J179" s="6">
+        <v>220.0</v>
+      </c>
+      <c r="K179" s="6">
+        <v>251.0</v>
+      </c>
+      <c r="L179" s="6">
+        <v>226.0</v>
+      </c>
+      <c r="M179" s="6">
+        <v>169.0</v>
+      </c>
+      <c r="N179" s="6">
+        <v>227.0</v>
+      </c>
+      <c r="O179" s="6">
+        <v>290.0</v>
+      </c>
+      <c r="P179" s="6">
+        <v>203.0</v>
+      </c>
+      <c r="Q179" s="6">
+        <v>199.0</v>
+      </c>
+      <c r="R179" s="3">
+        <f t="shared" si="2"/>
+        <v>111.5625</v>
+      </c>
+      <c r="S179" s="3">
+        <f t="shared" si="3"/>
+        <v>18.12543103</v>
+      </c>
+      <c r="T179" s="8">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>16.24688496</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
@@ -9875,17 +10482,44 @@
       <c r="F182" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="R182" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S182" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T182" s="3" t="str">
+      <c r="G182" s="5">
+        <v>44858.0</v>
+      </c>
+      <c r="H182" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I182" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J182" s="6">
+        <v>110.0</v>
+      </c>
+      <c r="K182" s="6">
+        <v>99.0</v>
+      </c>
+      <c r="L182" s="6">
+        <v>107.0</v>
+      </c>
+      <c r="M182" s="6">
+        <v>90.0</v>
+      </c>
+      <c r="N182" s="6">
+        <v>99.0</v>
+      </c>
+      <c r="O182" s="6">
+        <v>118.0</v>
+      </c>
+      <c r="R182" s="3">
+        <f t="shared" si="2"/>
+        <v>51.91666667</v>
+      </c>
+      <c r="S182" s="3">
+        <f t="shared" si="3"/>
+        <v>4.933727462</v>
+      </c>
+      <c r="T182" s="3">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>9.50316686</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
@@ -9908,17 +10542,44 @@
       <c r="F183" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="R183" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S183" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T183" s="3" t="str">
+      <c r="G183" s="5">
+        <v>44858.0</v>
+      </c>
+      <c r="H183" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I183" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="J183" s="6">
+        <v>124.0</v>
+      </c>
+      <c r="K183" s="6">
+        <v>114.0</v>
+      </c>
+      <c r="L183" s="6">
+        <v>102.0</v>
+      </c>
+      <c r="M183" s="6">
+        <v>149.0</v>
+      </c>
+      <c r="N183" s="6">
+        <v>116.0</v>
+      </c>
+      <c r="O183" s="6">
+        <v>132.0</v>
+      </c>
+      <c r="R183" s="3">
+        <f t="shared" si="2"/>
+        <v>40.94444444</v>
+      </c>
+      <c r="S183" s="3">
+        <f t="shared" si="3"/>
+        <v>5.43411719</v>
+      </c>
+      <c r="T183" s="3">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>13.27192801</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
@@ -11759,17 +12420,44 @@
       <c r="F214" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="R214" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S214" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T214" s="3" t="str">
+      <c r="G214" s="5">
+        <v>44848.0</v>
+      </c>
+      <c r="H214" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I214" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="J214" s="6">
+        <v>129.0</v>
+      </c>
+      <c r="K214" s="6">
+        <v>118.0</v>
+      </c>
+      <c r="L214" s="6">
+        <v>157.0</v>
+      </c>
+      <c r="M214" s="6">
+        <v>160.0</v>
+      </c>
+      <c r="N214" s="6">
+        <v>149.0</v>
+      </c>
+      <c r="O214" s="6">
+        <v>137.0</v>
+      </c>
+      <c r="R214" s="3">
+        <f t="shared" si="2"/>
+        <v>47.22222222</v>
+      </c>
+      <c r="S214" s="3">
+        <f t="shared" si="3"/>
+        <v>5.512275863</v>
+      </c>
+      <c r="T214" s="7">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>11.67305477</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
@@ -12578,26 +13266,26 @@
       <c r="F236" s="1"/>
       <c r="U236" s="3">
         <f t="shared" si="24"/>
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="W236" s="25" t="s">
         <v>161</v>
       </c>
       <c r="X236" s="26">
         <f>COUNTIF(T149:AA184,"&lt;15")</f>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="Y236" s="26">
-        <f>COUNTIF(T149:AA184,"&lt;15")</f>
-        <v>6</v>
+        <f>COUNTIF(T149:AA184,"&gt;15")</f>
+        <v>1</v>
       </c>
       <c r="Z236" s="26">
         <f>COUNTIF(T149:AA184,"&lt;20")</f>
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="AA236" s="26">
         <f>COUNTIF(T149:AA184,"#DIV/0!")</f>
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
@@ -12616,7 +13304,7 @@
       </c>
       <c r="X237" s="26">
         <f>COUNTIF(T185:T220,"&lt;15")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y237" s="26">
         <f>COUNTIF(T185:T220,"&gt;15")</f>
@@ -12628,7 +13316,7 @@
       </c>
       <c r="AA237" s="26">
         <f>COUNTIF(T185:T220,"#DIV/0!")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
@@ -12643,19 +13331,19 @@
       </c>
       <c r="X238" s="23">
         <f t="shared" ref="X238:AA238" si="25">SUM(X232:X237)</f>
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="Y238" s="23">
         <f t="shared" si="25"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Z238" s="23">
         <f t="shared" si="25"/>
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="AA238" s="23">
         <f t="shared" si="25"/>
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
@@ -35504,6 +36192,7 @@
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
     </row>
     <row r="3">
       <c r="A3" s="9" t="str">
@@ -35574,6 +36263,7 @@
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
     </row>
     <row r="4">
       <c r="A4" s="9" t="str">
@@ -35648,6 +36338,7 @@
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="str">
@@ -35718,6 +36409,7 @@
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="str">
@@ -35788,6 +36480,7 @@
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="str">
@@ -35858,6 +36551,7 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="str">
@@ -35928,6 +36622,7 @@
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="str">
@@ -36002,6 +36697,7 @@
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="str">
@@ -36076,6 +36772,7 @@
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="str">
@@ -36146,6 +36843,7 @@
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="str">
@@ -36220,6 +36918,7 @@
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
     </row>
     <row r="13">
       <c r="A13" s="9" t="str">
@@ -36290,6 +36989,7 @@
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="str">
@@ -36360,6 +37060,7 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="str">
@@ -36434,6 +37135,7 @@
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="str">
@@ -36504,6 +37206,7 @@
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="str">
@@ -36641,6 +37344,7 @@
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="str">
@@ -36711,6 +37415,7 @@
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
     </row>
     <row r="20">
       <c r="A20" s="9" t="str">
@@ -36781,6 +37486,7 @@
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
     </row>
     <row r="21">
       <c r="A21" s="9" t="str">
@@ -36851,6 +37557,7 @@
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
     </row>
     <row r="22">
       <c r="A22" s="9" t="str">
@@ -36921,6 +37628,7 @@
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
     </row>
     <row r="23">
       <c r="A23" s="9" t="str">
@@ -36991,6 +37699,7 @@
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
     </row>
     <row r="24">
       <c r="A24" s="9" t="str">
@@ -37061,6 +37770,7 @@
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
     </row>
     <row r="25">
       <c r="A25" s="9" t="str">
@@ -37131,6 +37841,7 @@
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
     </row>
     <row r="26">
       <c r="A26" s="9" t="str">
@@ -37201,6 +37912,7 @@
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
     </row>
     <row r="27">
       <c r="A27" s="9" t="str">
@@ -37275,6 +37987,736 @@
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="1" t="str">
+        <f t="shared" ref="A29:A40" si="6">B29&amp;"_"&amp;C29&amp;"_"&amp;E29</f>
+        <v>OFAV_PP_369</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>369.0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="5">
+        <v>44858.0</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>107.0</v>
+      </c>
+      <c r="K29" s="6">
+        <v>125.0</v>
+      </c>
+      <c r="L29" s="6">
+        <v>89.0</v>
+      </c>
+      <c r="M29" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="N29" s="6">
+        <v>120.0</v>
+      </c>
+      <c r="O29" s="6">
+        <v>120.0</v>
+      </c>
+      <c r="R29" s="3">
+        <f t="shared" ref="R29:R40" si="7">AVERAGE(J29:Q29)/I29</f>
+        <v>27.54166667</v>
+      </c>
+      <c r="S29" s="3">
+        <f t="shared" ref="S29:S40" si="8">STDEV(J29:Q29)/I29</f>
+        <v>3.490761617</v>
+      </c>
+      <c r="T29" s="7">
+        <f t="shared" ref="T29:T40" si="9">S29/R29*100</f>
+        <v>12.67447486</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>OFAV_PP_9IR44</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="5">
+        <v>44852.0</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>121.0</v>
+      </c>
+      <c r="K30" s="6">
+        <v>115.0</v>
+      </c>
+      <c r="L30" s="6">
+        <v>137.0</v>
+      </c>
+      <c r="M30" s="6">
+        <v>121.0</v>
+      </c>
+      <c r="N30" s="6">
+        <v>122.0</v>
+      </c>
+      <c r="O30" s="6">
+        <v>123.0</v>
+      </c>
+      <c r="R30" s="3">
+        <f t="shared" si="7"/>
+        <v>41.05555556</v>
+      </c>
+      <c r="S30" s="3">
+        <f t="shared" si="8"/>
+        <v>2.444191906</v>
+      </c>
+      <c r="T30" s="7">
+        <f t="shared" si="9"/>
+        <v>5.953376767</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>OFRA_PP_0GT5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="5">
+        <v>44858.0</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J31" s="6">
+        <v>131.0</v>
+      </c>
+      <c r="K31" s="6">
+        <v>105.0</v>
+      </c>
+      <c r="L31" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="M31" s="6">
+        <v>113.0</v>
+      </c>
+      <c r="N31" s="6">
+        <v>112.0</v>
+      </c>
+      <c r="O31" s="6">
+        <v>131.0</v>
+      </c>
+      <c r="R31" s="3">
+        <f t="shared" si="7"/>
+        <v>57.66666667</v>
+      </c>
+      <c r="S31" s="3">
+        <f t="shared" si="8"/>
+        <v>6.516645354</v>
+      </c>
+      <c r="T31" s="7">
+        <f t="shared" si="9"/>
+        <v>11.30054108</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>OFRA_PP_8HS23</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="16">
+        <v>33.0</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="5">
+        <v>44859.0</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>223.0</v>
+      </c>
+      <c r="K32" s="6">
+        <v>224.0</v>
+      </c>
+      <c r="L32" s="6">
+        <v>209.0</v>
+      </c>
+      <c r="M32" s="6">
+        <v>156.0</v>
+      </c>
+      <c r="N32" s="6">
+        <v>232.0</v>
+      </c>
+      <c r="O32" s="6">
+        <v>175.0</v>
+      </c>
+      <c r="P32" s="6">
+        <v>177.0</v>
+      </c>
+      <c r="R32" s="3">
+        <f t="shared" si="7"/>
+        <v>99.71428571</v>
+      </c>
+      <c r="S32" s="3">
+        <f t="shared" si="8"/>
+        <v>14.85725733</v>
+      </c>
+      <c r="T32" s="7">
+        <f t="shared" si="9"/>
+        <v>14.89982826</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>OFRA_PS_0CX5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="5">
+        <v>44858.0</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>106.0</v>
+      </c>
+      <c r="K33" s="6">
+        <v>105.0</v>
+      </c>
+      <c r="L33" s="6">
+        <v>86.0</v>
+      </c>
+      <c r="M33" s="6">
+        <v>96.0</v>
+      </c>
+      <c r="N33" s="6">
+        <v>94.0</v>
+      </c>
+      <c r="O33" s="6">
+        <v>108.0</v>
+      </c>
+      <c r="R33" s="3">
+        <f t="shared" si="7"/>
+        <v>24.79166667</v>
+      </c>
+      <c r="S33" s="3">
+        <f t="shared" si="8"/>
+        <v>2.147188084</v>
+      </c>
+      <c r="T33" s="7">
+        <f t="shared" si="9"/>
+        <v>8.660926724</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>OFRA_PS_2CX8</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="16">
+        <v>14.0</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="5">
+        <v>44859.0</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>92.0</v>
+      </c>
+      <c r="K34" s="6">
+        <v>117.0</v>
+      </c>
+      <c r="L34" s="6">
+        <v>106.0</v>
+      </c>
+      <c r="M34" s="6">
+        <v>120.0</v>
+      </c>
+      <c r="N34" s="6">
+        <v>113.0</v>
+      </c>
+      <c r="O34" s="6">
+        <v>135.0</v>
+      </c>
+      <c r="R34" s="3">
+        <f t="shared" si="7"/>
+        <v>28.45833333</v>
+      </c>
+      <c r="S34" s="3">
+        <f t="shared" si="8"/>
+        <v>3.596584027</v>
+      </c>
+      <c r="T34" s="7">
+        <f t="shared" si="9"/>
+        <v>12.63806979</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>OFRA_PS_2GT3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="16">
+        <v>16.0</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="5">
+        <v>44859.0</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J35" s="6">
+        <v>179.0</v>
+      </c>
+      <c r="K35" s="6">
+        <v>154.0</v>
+      </c>
+      <c r="L35" s="6">
+        <v>169.0</v>
+      </c>
+      <c r="M35" s="6">
+        <v>201.0</v>
+      </c>
+      <c r="N35" s="6">
+        <v>209.0</v>
+      </c>
+      <c r="O35" s="6">
+        <v>163.0</v>
+      </c>
+      <c r="R35" s="3">
+        <f t="shared" si="7"/>
+        <v>89.58333333</v>
+      </c>
+      <c r="S35" s="3">
+        <f t="shared" si="8"/>
+        <v>10.87389841</v>
+      </c>
+      <c r="T35" s="7">
+        <f t="shared" si="9"/>
+        <v>12.1383052</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>OFRA_PS_2GT30</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="5">
+        <v>44858.0</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J36" s="6">
+        <v>71.0</v>
+      </c>
+      <c r="K36" s="6">
+        <v>70.0</v>
+      </c>
+      <c r="L36" s="13">
+        <v>89.0</v>
+      </c>
+      <c r="M36" s="13">
+        <v>86.0</v>
+      </c>
+      <c r="N36" s="6">
+        <v>71.0</v>
+      </c>
+      <c r="O36" s="6">
+        <v>78.0</v>
+      </c>
+      <c r="R36" s="3">
+        <f t="shared" si="7"/>
+        <v>19.375</v>
+      </c>
+      <c r="S36" s="3">
+        <f t="shared" si="8"/>
+        <v>2.078160244</v>
+      </c>
+      <c r="T36" s="7">
+        <f t="shared" si="9"/>
+        <v>10.72598836</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>OFRA_PS_2HS27</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="16">
+        <v>23.0</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="5">
+        <v>44859.0</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J37" s="6">
+        <v>153.0</v>
+      </c>
+      <c r="K37" s="6">
+        <v>134.0</v>
+      </c>
+      <c r="L37" s="6">
+        <v>135.0</v>
+      </c>
+      <c r="M37" s="6">
+        <v>133.0</v>
+      </c>
+      <c r="N37" s="6">
+        <v>124.0</v>
+      </c>
+      <c r="O37" s="6">
+        <v>120.0</v>
+      </c>
+      <c r="R37" s="3">
+        <f t="shared" si="7"/>
+        <v>66.58333333</v>
+      </c>
+      <c r="S37" s="3">
+        <f t="shared" si="8"/>
+        <v>5.722033438</v>
+      </c>
+      <c r="T37" s="7">
+        <f t="shared" si="9"/>
+        <v>8.593792398</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>OFRA_PS_4CX12</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="16">
+        <v>25.0</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="5">
+        <v>44859.0</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J38" s="6">
+        <v>189.0</v>
+      </c>
+      <c r="K38" s="6">
+        <v>166.0</v>
+      </c>
+      <c r="L38" s="6">
+        <v>154.0</v>
+      </c>
+      <c r="M38" s="6">
+        <v>159.0</v>
+      </c>
+      <c r="N38" s="6">
+        <v>142.0</v>
+      </c>
+      <c r="O38" s="6">
+        <v>160.0</v>
+      </c>
+      <c r="R38" s="3">
+        <f t="shared" si="7"/>
+        <v>80.83333333</v>
+      </c>
+      <c r="S38" s="3">
+        <f t="shared" si="8"/>
+        <v>7.814516406</v>
+      </c>
+      <c r="T38" s="7">
+        <f t="shared" si="9"/>
+        <v>9.667442977</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>OFRA_PS_4HS15</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="16">
+        <v>27.0</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="5">
+        <v>44858.0</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J39" s="6">
+        <v>60.0</v>
+      </c>
+      <c r="K39" s="6">
+        <v>106.0</v>
+      </c>
+      <c r="L39" s="6">
+        <v>61.0</v>
+      </c>
+      <c r="M39" s="6">
+        <v>64.0</v>
+      </c>
+      <c r="N39" s="6">
+        <v>105.0</v>
+      </c>
+      <c r="O39" s="6">
+        <v>81.0</v>
+      </c>
+      <c r="P39" s="6">
+        <v>48.0</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>49.0</v>
+      </c>
+      <c r="R39" s="3">
+        <f t="shared" si="7"/>
+        <v>17.9375</v>
+      </c>
+      <c r="S39" s="3">
+        <f t="shared" si="8"/>
+        <v>5.793700397</v>
+      </c>
+      <c r="T39" s="8">
+        <f t="shared" si="9"/>
+        <v>32.29937503</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>OFRA_PS_8HS24</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="16">
+        <v>34.0</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="5">
+        <v>44859.0</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J40" s="6">
+        <v>93.0</v>
+      </c>
+      <c r="K40" s="6">
+        <v>78.0</v>
+      </c>
+      <c r="L40" s="6">
+        <v>85.0</v>
+      </c>
+      <c r="M40" s="6">
+        <v>86.0</v>
+      </c>
+      <c r="N40" s="6">
+        <v>107.0</v>
+      </c>
+      <c r="O40" s="6">
+        <v>92.0</v>
+      </c>
+      <c r="R40" s="3">
+        <f t="shared" si="7"/>
+        <v>22.54166667</v>
+      </c>
+      <c r="S40" s="3">
+        <f t="shared" si="8"/>
+        <v>2.466863731</v>
+      </c>
+      <c r="T40" s="7">
+        <f t="shared" si="9"/>
+        <v>10.94357293</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -37360,6 +38802,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
       <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
     </row>
     <row r="2">
       <c r="A2" s="9" t="str">
@@ -37430,6 +38873,7 @@
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
     </row>
     <row r="3">
       <c r="A3" s="9" t="str">
@@ -37500,6 +38944,7 @@
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
     </row>
     <row r="4">
       <c r="A4" s="9" t="str">
@@ -37574,6 +39019,7 @@
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="str">
@@ -37644,6 +39090,7 @@
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="str">
@@ -37718,6 +39165,7 @@
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -37779,6 +39227,66 @@
       </c>
       <c r="T7" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="1" t="str">
+        <f>B8&amp;"_"&amp;C8&amp;"_"&amp;E8</f>
+        <v>OFRA_PS_4HS15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="16">
+        <v>27.0</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="5">
+        <v>44858.0</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>88.0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>102.0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>79.0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>78.0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>69.0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>98.0</v>
+      </c>
+      <c r="R8" s="3">
+        <f>AVERAGE(J8:Q8)/I8</f>
+        <v>21.41666667</v>
+      </c>
+      <c r="S8" s="3">
+        <f>STDEV(J8:Q8)/I8</f>
+        <v>3.172801076</v>
+      </c>
+      <c r="T8" s="7">
+        <f>S8/R8*100</f>
+        <v>14.81463537</v>
       </c>
     </row>
   </sheetData>
